--- a/Jiyoung/queries/2017-06-17/2017-06-17_주문내역.xlsx
+++ b/Jiyoung/queries/2017-06-17/2017-06-17_주문내역.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="43">
   <si>
     <t>주문자</t>
   </si>
@@ -539,15 +539,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,20 +580,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -875,12 +875,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -1023,7 +1023,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="22" t="str">
         <f>SUM(C3:C11) &amp; "개"</f>
         <v>366개</v>
       </c>
@@ -1034,27 +1034,27 @@
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1075,38 +1075,38 @@
   </sheetPr>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="32" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="20"/>
+    <col min="3" max="3" width="8" style="25" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="19"/>
     <col min="6" max="6" width="6.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="32" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="20"/>
+    <col min="9" max="9" width="8" style="25" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="19"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -1116,56 +1116,60 @@
       <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="36">
+        <v>2</v>
+      </c>
       <c r="G3" s="9">
         <v>2</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="23">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="19"/>
+      <c r="K3" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="B4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="36" t="s">
+      <c r="H4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1176,13 +1180,13 @@
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="24">
         <v>14</v>
       </c>
-      <c r="D5" s="21">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20">
         <v>14</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -1191,13 +1195,13 @@
       <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="31">
-        <v>6</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="I5" s="24">
+        <v>6</v>
+      </c>
+      <c r="J5" s="20">
         <v>1.5</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>9</v>
       </c>
     </row>
@@ -1208,13 +1212,13 @@
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31">
-        <v>4</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="24">
+        <v>4</v>
+      </c>
+      <c r="D6" s="20">
         <v>1.5</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -1223,13 +1227,13 @@
       <c r="H6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="31">
-        <v>2</v>
-      </c>
-      <c r="J6" s="21">
-        <v>2</v>
-      </c>
-      <c r="K6" s="21">
+      <c r="I6" s="24">
+        <v>2</v>
+      </c>
+      <c r="J6" s="20">
+        <v>2</v>
+      </c>
+      <c r="K6" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1244,13 +1248,13 @@
       <c r="H7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="31">
-        <v>2</v>
-      </c>
-      <c r="J7" s="21">
-        <v>2</v>
-      </c>
-      <c r="K7" s="21">
+      <c r="I7" s="24">
+        <v>2</v>
+      </c>
+      <c r="J7" s="20">
+        <v>2</v>
+      </c>
+      <c r="K7" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1261,13 +1265,13 @@
       <c r="H8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="31">
-        <v>4</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="I8" s="24">
+        <v>4</v>
+      </c>
+      <c r="J8" s="20">
         <v>1.5</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>6</v>
       </c>
     </row>
@@ -1285,56 +1289,60 @@
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="23">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="36">
+        <v>1</v>
+      </c>
       <c r="G11" s="9">
         <v>4</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="23">
+        <v>3</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="33" t="s">
+      <c r="B12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="36" t="s">
+      <c r="H12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1345,13 +1353,13 @@
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="31">
-        <v>2</v>
-      </c>
-      <c r="D13" s="21">
-        <v>2</v>
-      </c>
-      <c r="E13" s="21">
+      <c r="C13" s="24">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
         <v>4</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -1360,13 +1368,13 @@
       <c r="H13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="31">
-        <v>2</v>
-      </c>
-      <c r="J13" s="21">
-        <v>2</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="I13" s="24">
+        <v>2</v>
+      </c>
+      <c r="J13" s="20">
+        <v>2</v>
+      </c>
+      <c r="K13" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1377,13 +1385,13 @@
       <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="31">
-        <v>2</v>
-      </c>
-      <c r="D14" s="21">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21">
+      <c r="C14" s="24">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20">
         <v>4</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -1392,13 +1400,13 @@
       <c r="H14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="31">
-        <v>2</v>
-      </c>
-      <c r="J14" s="21">
-        <v>1</v>
-      </c>
-      <c r="K14" s="21">
+      <c r="I14" s="24">
+        <v>2</v>
+      </c>
+      <c r="J14" s="20">
+        <v>1</v>
+      </c>
+      <c r="K14" s="20">
         <v>2</v>
       </c>
     </row>
@@ -1409,13 +1417,13 @@
       <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="31">
-        <v>2</v>
-      </c>
-      <c r="D15" s="21">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="C15" s="24">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2</v>
+      </c>
+      <c r="E15" s="20">
         <v>4</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -1424,13 +1432,13 @@
       <c r="H15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="31">
-        <v>2</v>
-      </c>
-      <c r="J15" s="21">
+      <c r="I15" s="24">
+        <v>2</v>
+      </c>
+      <c r="J15" s="20">
         <v>1.5</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1441,13 +1449,13 @@
       <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="31">
-        <v>2</v>
-      </c>
-      <c r="D16" s="21">
-        <v>2</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
         <v>4</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -1456,13 +1464,13 @@
       <c r="H16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="24">
         <v>5</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <v>1.5</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>7.5</v>
       </c>
     </row>
@@ -1473,13 +1481,13 @@
       <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="31">
-        <v>2</v>
-      </c>
-      <c r="D17" s="21">
+      <c r="C17" s="24">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20">
         <v>1.5</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>3</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -1488,13 +1496,13 @@
       <c r="H17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="31">
-        <v>2</v>
-      </c>
-      <c r="J17" s="21">
+      <c r="I17" s="24">
+        <v>2</v>
+      </c>
+      <c r="J17" s="20">
         <v>1.5</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1523,56 +1531,60 @@
       <c r="B20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="23">
+        <v>5</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="36">
+        <v>2</v>
+      </c>
       <c r="G20" s="9">
         <v>6</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="22" t="s">
+      <c r="I20" s="23">
+        <v>4</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="33" t="s">
+      <c r="B21" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="36" t="s">
+      <c r="H21" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1583,13 +1595,13 @@
       <c r="B22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="24">
         <v>13</v>
       </c>
-      <c r="D22" s="21">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21">
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20">
         <v>13</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -1598,13 +1610,13 @@
       <c r="H22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="31">
-        <v>4</v>
-      </c>
-      <c r="J22" s="21">
-        <v>2</v>
-      </c>
-      <c r="K22" s="21">
+      <c r="I22" s="24">
+        <v>4</v>
+      </c>
+      <c r="J22" s="20">
+        <v>2</v>
+      </c>
+      <c r="K22" s="20">
         <v>8</v>
       </c>
     </row>
@@ -1615,13 +1627,13 @@
       <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="24">
         <v>7</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>1.5</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>10.5</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -1630,13 +1642,13 @@
       <c r="H23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="24">
         <v>8</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="20">
         <v>1.5</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="20">
         <v>12</v>
       </c>
     </row>
@@ -1647,13 +1659,13 @@
       <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="31">
-        <v>2</v>
-      </c>
-      <c r="D24" s="21">
-        <v>2</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="C24" s="24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20">
         <v>4</v>
       </c>
       <c r="G24" s="11" t="s">
@@ -1662,13 +1674,13 @@
       <c r="H24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="24">
         <v>5</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="20">
         <v>1.5</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="20">
         <v>7.5</v>
       </c>
     </row>
@@ -1679,13 +1691,13 @@
       <c r="B25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="24">
         <v>5</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>1.5</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>7.5</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1710,56 +1722,60 @@
       <c r="B28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="23">
+        <v>7</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="36">
+        <v>3</v>
+      </c>
       <c r="G28" s="9">
         <v>8</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="22" t="s">
+      <c r="I28" s="23">
+        <v>6</v>
+      </c>
+      <c r="J28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="19"/>
+      <c r="K28" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="33" t="s">
+      <c r="B29" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="36" t="s">
+      <c r="H29" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1770,13 +1786,13 @@
       <c r="B30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="31">
-        <v>3</v>
-      </c>
-      <c r="D30" s="21">
-        <v>2</v>
-      </c>
-      <c r="E30" s="21">
+      <c r="C30" s="24">
+        <v>3</v>
+      </c>
+      <c r="D30" s="20">
+        <v>2</v>
+      </c>
+      <c r="E30" s="20">
         <v>6</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -1785,13 +1801,13 @@
       <c r="H30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="31">
-        <v>4</v>
-      </c>
-      <c r="J30" s="21">
-        <v>2</v>
-      </c>
-      <c r="K30" s="21">
+      <c r="I30" s="24">
+        <v>4</v>
+      </c>
+      <c r="J30" s="20">
+        <v>2</v>
+      </c>
+      <c r="K30" s="20">
         <v>8</v>
       </c>
     </row>
@@ -1802,13 +1818,13 @@
       <c r="B31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="31">
-        <v>3</v>
-      </c>
-      <c r="D31" s="21">
-        <v>2</v>
-      </c>
-      <c r="E31" s="21">
+      <c r="C31" s="24">
+        <v>3</v>
+      </c>
+      <c r="D31" s="20">
+        <v>2</v>
+      </c>
+      <c r="E31" s="20">
         <v>6</v>
       </c>
       <c r="G31" s="11" t="s">
@@ -1817,13 +1833,13 @@
       <c r="H31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="31">
-        <v>3</v>
-      </c>
-      <c r="J31" s="21">
-        <v>2</v>
-      </c>
-      <c r="K31" s="21">
+      <c r="I31" s="24">
+        <v>3</v>
+      </c>
+      <c r="J31" s="20">
+        <v>2</v>
+      </c>
+      <c r="K31" s="20">
         <v>6</v>
       </c>
     </row>
@@ -1834,13 +1850,13 @@
       <c r="B32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="24">
         <v>10</v>
       </c>
-      <c r="D32" s="21">
-        <v>1</v>
-      </c>
-      <c r="E32" s="21">
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20">
         <v>10</v>
       </c>
       <c r="G32" s="11" t="s">
@@ -1849,13 +1865,13 @@
       <c r="H32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="31">
-        <v>3</v>
-      </c>
-      <c r="J32" s="21">
-        <v>2</v>
-      </c>
-      <c r="K32" s="21">
+      <c r="I32" s="24">
+        <v>3</v>
+      </c>
+      <c r="J32" s="20">
+        <v>2</v>
+      </c>
+      <c r="K32" s="20">
         <v>6</v>
       </c>
     </row>
@@ -1866,13 +1882,13 @@
       <c r="B33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="24">
         <v>10</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>1.5</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>15</v>
       </c>
       <c r="G33" s="11" t="s">
@@ -1881,13 +1897,13 @@
       <c r="H33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="31">
-        <v>3</v>
-      </c>
-      <c r="J33" s="21">
-        <v>1</v>
-      </c>
-      <c r="K33" s="21">
+      <c r="I33" s="24">
+        <v>3</v>
+      </c>
+      <c r="J33" s="20">
+        <v>1</v>
+      </c>
+      <c r="K33" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1898,13 +1914,13 @@
       <c r="B34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="31">
-        <v>6</v>
-      </c>
-      <c r="D34" s="21">
+      <c r="C34" s="24">
+        <v>6</v>
+      </c>
+      <c r="D34" s="20">
         <v>1.5</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>9</v>
       </c>
       <c r="G34" s="11" t="s">
@@ -1913,13 +1929,13 @@
       <c r="H34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="31">
-        <v>2</v>
-      </c>
-      <c r="J34" s="21">
+      <c r="I34" s="24">
+        <v>2</v>
+      </c>
+      <c r="J34" s="20">
         <v>1.5</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1930,13 +1946,13 @@
       <c r="B35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="31">
-        <v>4</v>
-      </c>
-      <c r="D35" s="21">
+      <c r="C35" s="24">
+        <v>4</v>
+      </c>
+      <c r="D35" s="20">
         <v>1.5</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>6</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -1945,13 +1961,13 @@
       <c r="H35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="31">
-        <v>3</v>
-      </c>
-      <c r="J35" s="21">
+      <c r="I35" s="24">
+        <v>3</v>
+      </c>
+      <c r="J35" s="20">
         <v>1.5</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="20">
         <v>4.5</v>
       </c>
     </row>
@@ -1976,28 +1992,30 @@
       <c r="B38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="C38" s="23">
+        <v>7</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="19"/>
+      <c r="E38" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="36" t="s">
+      <c r="B39" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2008,13 +2026,13 @@
       <c r="B40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="24">
         <v>10</v>
       </c>
-      <c r="D40" s="21">
-        <v>2</v>
-      </c>
-      <c r="E40" s="21">
+      <c r="D40" s="20">
+        <v>2</v>
+      </c>
+      <c r="E40" s="20">
         <v>20</v>
       </c>
     </row>
@@ -2025,13 +2043,13 @@
       <c r="B41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="24">
         <v>5</v>
       </c>
-      <c r="D41" s="21">
-        <v>2</v>
-      </c>
-      <c r="E41" s="21">
+      <c r="D41" s="20">
+        <v>2</v>
+      </c>
+      <c r="E41" s="20">
         <v>10</v>
       </c>
     </row>
@@ -2042,13 +2060,13 @@
       <c r="B42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="24">
         <v>5</v>
       </c>
-      <c r="D42" s="21">
-        <v>1</v>
-      </c>
-      <c r="E42" s="21">
+      <c r="D42" s="20">
+        <v>1</v>
+      </c>
+      <c r="E42" s="20">
         <v>5</v>
       </c>
     </row>
@@ -2069,28 +2087,28 @@
       <c r="B46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="22" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="36">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="36" t="s">
+      <c r="B47" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="9">
@@ -2099,13 +2117,15 @@
       <c r="H47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" s="22" t="s">
+      <c r="I47" s="23">
+        <v>10</v>
+      </c>
+      <c r="J47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="19"/>
+      <c r="K47" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
@@ -2114,28 +2134,28 @@
       <c r="B48" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="24">
         <v>7</v>
       </c>
-      <c r="D48" s="21">
-        <v>2</v>
-      </c>
-      <c r="E48" s="21">
+      <c r="D48" s="20">
+        <v>2</v>
+      </c>
+      <c r="E48" s="20">
         <v>14</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H48" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K48" s="36" t="s">
+      <c r="H48" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2146,13 +2166,13 @@
       <c r="B49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="24">
         <v>10</v>
       </c>
-      <c r="D49" s="21">
-        <v>2</v>
-      </c>
-      <c r="E49" s="21">
+      <c r="D49" s="20">
+        <v>2</v>
+      </c>
+      <c r="E49" s="20">
         <v>20</v>
       </c>
       <c r="G49" s="11" t="s">
@@ -2161,13 +2181,13 @@
       <c r="H49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I49" s="31">
-        <v>2</v>
-      </c>
-      <c r="J49" s="21">
-        <v>2</v>
-      </c>
-      <c r="K49" s="21">
+      <c r="I49" s="24">
+        <v>2</v>
+      </c>
+      <c r="J49" s="20">
+        <v>2</v>
+      </c>
+      <c r="K49" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2178,13 +2198,13 @@
       <c r="B50" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="31">
-        <v>6</v>
-      </c>
-      <c r="D50" s="21">
-        <v>2</v>
-      </c>
-      <c r="E50" s="21">
+      <c r="C50" s="24">
+        <v>6</v>
+      </c>
+      <c r="D50" s="20">
+        <v>2</v>
+      </c>
+      <c r="E50" s="20">
         <v>12</v>
       </c>
       <c r="G50" s="11" t="s">
@@ -2193,13 +2213,13 @@
       <c r="H50" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="31">
+      <c r="I50" s="24">
         <v>5</v>
       </c>
-      <c r="J50" s="21">
-        <v>2</v>
-      </c>
-      <c r="K50" s="21">
+      <c r="J50" s="20">
+        <v>2</v>
+      </c>
+      <c r="K50" s="20">
         <v>10</v>
       </c>
     </row>
@@ -2210,13 +2230,13 @@
       <c r="B51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="31">
-        <v>6</v>
-      </c>
-      <c r="D51" s="21">
-        <v>1</v>
-      </c>
-      <c r="E51" s="21">
+      <c r="C51" s="24">
+        <v>6</v>
+      </c>
+      <c r="D51" s="20">
+        <v>1</v>
+      </c>
+      <c r="E51" s="20">
         <v>6</v>
       </c>
       <c r="G51" s="11" t="s">
@@ -2225,13 +2245,13 @@
       <c r="H51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="31">
+      <c r="I51" s="24">
         <v>10</v>
       </c>
-      <c r="J51" s="21">
-        <v>1</v>
-      </c>
-      <c r="K51" s="21">
+      <c r="J51" s="20">
+        <v>1</v>
+      </c>
+      <c r="K51" s="20">
         <v>10</v>
       </c>
     </row>
@@ -2242,13 +2262,13 @@
       <c r="B52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="24">
         <v>17</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="20">
         <v>1.5</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>25.5</v>
       </c>
       <c r="G52" s="11" t="s">
@@ -2257,13 +2277,13 @@
       <c r="H52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="31">
-        <v>3</v>
-      </c>
-      <c r="J52" s="21">
-        <v>2</v>
-      </c>
-      <c r="K52" s="21">
+      <c r="I52" s="24">
+        <v>3</v>
+      </c>
+      <c r="J52" s="20">
+        <v>2</v>
+      </c>
+      <c r="K52" s="20">
         <v>6</v>
       </c>
     </row>
@@ -2274,13 +2294,13 @@
       <c r="B53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="31">
-        <v>4</v>
-      </c>
-      <c r="D53" s="21">
-        <v>2</v>
-      </c>
-      <c r="E53" s="21">
+      <c r="C53" s="24">
+        <v>4</v>
+      </c>
+      <c r="D53" s="20">
+        <v>2</v>
+      </c>
+      <c r="E53" s="20">
         <v>8</v>
       </c>
       <c r="G53" s="11" t="s">
@@ -2289,13 +2309,13 @@
       <c r="H53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="31">
+      <c r="I53" s="24">
         <v>5</v>
       </c>
-      <c r="J53" s="21">
-        <v>2</v>
-      </c>
-      <c r="K53" s="21">
+      <c r="J53" s="20">
+        <v>2</v>
+      </c>
+      <c r="K53" s="20">
         <v>10</v>
       </c>
     </row>
@@ -2306,13 +2326,13 @@
       <c r="B54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="24">
         <v>11</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="20">
         <v>1.5</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>16.5</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2330,13 +2350,13 @@
       <c r="B55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="24">
         <v>10</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="20">
         <v>1.5</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <v>15</v>
       </c>
     </row>
@@ -2347,13 +2367,13 @@
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="24">
         <v>17</v>
       </c>
-      <c r="D56" s="21">
-        <v>2</v>
-      </c>
-      <c r="E56" s="21">
+      <c r="D56" s="20">
+        <v>2</v>
+      </c>
+      <c r="E56" s="20">
         <v>34</v>
       </c>
     </row>
@@ -2374,56 +2394,60 @@
       <c r="B60" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="22" t="s">
+      <c r="C60" s="23">
+        <v>9</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="19"/>
+      <c r="E60" s="36">
+        <v>2</v>
+      </c>
       <c r="G60" s="9">
         <v>13</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="22" t="s">
+      <c r="I60" s="23">
+        <v>9</v>
+      </c>
+      <c r="J60" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K60" s="19"/>
+      <c r="K60" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="33" t="s">
+      <c r="B61" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I61" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J61" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K61" s="36" t="s">
+      <c r="H61" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2434,13 +2458,13 @@
       <c r="B62" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="31">
-        <v>4</v>
-      </c>
-      <c r="D62" s="21">
-        <v>2</v>
-      </c>
-      <c r="E62" s="21">
+      <c r="C62" s="24">
+        <v>4</v>
+      </c>
+      <c r="D62" s="20">
+        <v>2</v>
+      </c>
+      <c r="E62" s="20">
         <v>8</v>
       </c>
       <c r="G62" s="11" t="s">
@@ -2449,13 +2473,13 @@
       <c r="H62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="31">
-        <v>2</v>
-      </c>
-      <c r="J62" s="21">
-        <v>1</v>
-      </c>
-      <c r="K62" s="21">
+      <c r="I62" s="24">
+        <v>2</v>
+      </c>
+      <c r="J62" s="20">
+        <v>1</v>
+      </c>
+      <c r="K62" s="20">
         <v>2</v>
       </c>
     </row>
@@ -2466,13 +2490,13 @@
       <c r="B63" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="31">
-        <v>4</v>
-      </c>
-      <c r="D63" s="21">
-        <v>2</v>
-      </c>
-      <c r="E63" s="21">
+      <c r="C63" s="24">
+        <v>4</v>
+      </c>
+      <c r="D63" s="20">
+        <v>2</v>
+      </c>
+      <c r="E63" s="20">
         <v>8</v>
       </c>
       <c r="G63" s="11" t="s">
@@ -2481,13 +2505,13 @@
       <c r="H63" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="31">
-        <v>4</v>
-      </c>
-      <c r="J63" s="21">
-        <v>2</v>
-      </c>
-      <c r="K63" s="21">
+      <c r="I63" s="24">
+        <v>4</v>
+      </c>
+      <c r="J63" s="20">
+        <v>2</v>
+      </c>
+      <c r="K63" s="20">
         <v>8</v>
       </c>
     </row>
@@ -2498,13 +2522,13 @@
       <c r="B64" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="31">
-        <v>4</v>
-      </c>
-      <c r="D64" s="21">
-        <v>2</v>
-      </c>
-      <c r="E64" s="21">
+      <c r="C64" s="24">
+        <v>4</v>
+      </c>
+      <c r="D64" s="20">
+        <v>2</v>
+      </c>
+      <c r="E64" s="20">
         <v>8</v>
       </c>
       <c r="G64" s="11" t="s">
@@ -2513,13 +2537,13 @@
       <c r="H64" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="31">
-        <v>6</v>
-      </c>
-      <c r="J64" s="21">
-        <v>2</v>
-      </c>
-      <c r="K64" s="21">
+      <c r="I64" s="24">
+        <v>6</v>
+      </c>
+      <c r="J64" s="20">
+        <v>2</v>
+      </c>
+      <c r="K64" s="20">
         <v>12</v>
       </c>
     </row>
@@ -2530,13 +2554,13 @@
       <c r="B65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="31">
-        <v>4</v>
-      </c>
-      <c r="D65" s="21">
+      <c r="C65" s="24">
+        <v>4</v>
+      </c>
+      <c r="D65" s="20">
         <v>1.5</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <v>6</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -2554,13 +2578,13 @@
       <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="31">
-        <v>4</v>
-      </c>
-      <c r="D66" s="21">
+      <c r="C66" s="24">
+        <v>4</v>
+      </c>
+      <c r="D66" s="20">
         <v>1.5</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="20">
         <v>6</v>
       </c>
     </row>
@@ -2581,56 +2605,60 @@
       <c r="B70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="19"/>
+      <c r="E70" s="36">
+        <v>2</v>
+      </c>
       <c r="G70" s="9">
         <v>15</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="I70" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="22" t="s">
+      <c r="J70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="19"/>
+      <c r="K70" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" s="33" t="s">
+      <c r="B71" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H71" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I71" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K71" s="36" t="s">
+      <c r="H71" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K71" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2641,13 +2669,13 @@
       <c r="B72" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="31">
-        <v>4</v>
-      </c>
-      <c r="D72" s="21">
-        <v>2</v>
-      </c>
-      <c r="E72" s="21">
+      <c r="C72" s="24">
+        <v>4</v>
+      </c>
+      <c r="D72" s="20">
+        <v>2</v>
+      </c>
+      <c r="E72" s="20">
         <v>8</v>
       </c>
       <c r="G72" s="11" t="s">
@@ -2656,13 +2684,13 @@
       <c r="H72" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="31">
-        <v>2</v>
-      </c>
-      <c r="J72" s="21">
-        <v>2</v>
-      </c>
-      <c r="K72" s="21">
+      <c r="I72" s="24">
+        <v>2</v>
+      </c>
+      <c r="J72" s="20">
+        <v>2</v>
+      </c>
+      <c r="K72" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2673,13 +2701,13 @@
       <c r="B73" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="31">
-        <v>6</v>
-      </c>
-      <c r="D73" s="21">
-        <v>1</v>
-      </c>
-      <c r="E73" s="21">
+      <c r="C73" s="24">
+        <v>6</v>
+      </c>
+      <c r="D73" s="20">
+        <v>1</v>
+      </c>
+      <c r="E73" s="20">
         <v>6</v>
       </c>
       <c r="G73" s="11" t="s">
@@ -2688,13 +2716,13 @@
       <c r="H73" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I73" s="31">
-        <v>4</v>
-      </c>
-      <c r="J73" s="21">
-        <v>1</v>
-      </c>
-      <c r="K73" s="21">
+      <c r="I73" s="24">
+        <v>4</v>
+      </c>
+      <c r="J73" s="20">
+        <v>1</v>
+      </c>
+      <c r="K73" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2705,13 +2733,13 @@
       <c r="B74" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="31">
-        <v>4</v>
-      </c>
-      <c r="D74" s="21">
+      <c r="C74" s="24">
+        <v>4</v>
+      </c>
+      <c r="D74" s="20">
         <v>1.5</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="20">
         <v>6</v>
       </c>
       <c r="G74" s="11" t="s">
@@ -2720,13 +2748,13 @@
       <c r="H74" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I74" s="31">
-        <v>2</v>
-      </c>
-      <c r="J74" s="21">
+      <c r="I74" s="24">
+        <v>2</v>
+      </c>
+      <c r="J74" s="20">
         <v>1.5</v>
       </c>
-      <c r="K74" s="21">
+      <c r="K74" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2737,13 +2765,13 @@
       <c r="B75" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="31">
-        <v>4</v>
-      </c>
-      <c r="D75" s="21">
-        <v>2</v>
-      </c>
-      <c r="E75" s="21">
+      <c r="C75" s="24">
+        <v>4</v>
+      </c>
+      <c r="D75" s="20">
+        <v>2</v>
+      </c>
+      <c r="E75" s="20">
         <v>8</v>
       </c>
       <c r="G75" s="11" t="s">
@@ -2752,13 +2780,13 @@
       <c r="H75" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="31">
-        <v>1</v>
-      </c>
-      <c r="J75" s="21">
+      <c r="I75" s="24">
+        <v>1</v>
+      </c>
+      <c r="J75" s="20">
         <v>1.5</v>
       </c>
-      <c r="K75" s="21">
+      <c r="K75" s="20">
         <v>1.5</v>
       </c>
     </row>
@@ -2776,13 +2804,13 @@
       <c r="H76" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="31">
-        <v>3</v>
-      </c>
-      <c r="J76" s="21">
-        <v>2</v>
-      </c>
-      <c r="K76" s="21">
+      <c r="I76" s="24">
+        <v>3</v>
+      </c>
+      <c r="J76" s="20">
+        <v>2</v>
+      </c>
+      <c r="K76" s="20">
         <v>6</v>
       </c>
     </row>
@@ -2800,28 +2828,30 @@
       <c r="B79" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="19"/>
+      <c r="E79" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="36" t="s">
+      <c r="B80" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2832,13 +2862,13 @@
       <c r="B81" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="31">
-        <v>2</v>
-      </c>
-      <c r="D81" s="21">
-        <v>2</v>
-      </c>
-      <c r="E81" s="21">
+      <c r="C81" s="24">
+        <v>2</v>
+      </c>
+      <c r="D81" s="20">
+        <v>2</v>
+      </c>
+      <c r="E81" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2849,13 +2879,13 @@
       <c r="B82" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="31">
-        <v>4</v>
-      </c>
-      <c r="D82" s="21">
-        <v>1</v>
-      </c>
-      <c r="E82" s="21">
+      <c r="C82" s="24">
+        <v>4</v>
+      </c>
+      <c r="D82" s="20">
+        <v>1</v>
+      </c>
+      <c r="E82" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2866,13 +2896,13 @@
       <c r="B83" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="31">
-        <v>2</v>
-      </c>
-      <c r="D83" s="21">
+      <c r="C83" s="24">
+        <v>2</v>
+      </c>
+      <c r="D83" s="20">
         <v>1.5</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2883,13 +2913,13 @@
       <c r="B84" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="24">
         <v>10</v>
       </c>
-      <c r="D84" s="21">
-        <v>2</v>
-      </c>
-      <c r="E84" s="21">
+      <c r="D84" s="20">
+        <v>2</v>
+      </c>
+      <c r="E84" s="20">
         <v>20</v>
       </c>
     </row>
